--- a/Uloha9/Uloha9.xlsx
+++ b/Uloha9/Uloha9.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vutbr-my.sharepoint.com/personal/247759_vutbr_cz/Documents/Bc. 5. Semestr/BPC-MVAA/BPC-MVAA-Protokoly-2024/Uloha9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="648" documentId="11_AD4D80C4656A4B7AC02E7466D31E4DC45BDEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46CD72FF-E375-4136-9148-577D063E2845}"/>
+  <xr:revisionPtr revIDLastSave="835" documentId="11_AD4D80C4656A4B7AC02E7466D31E4DC45BDEDD81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE6F88E2-F95A-4D77-A49E-BA6548EA92FC}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="30912" windowHeight="16656" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="9A" sheetId="1" r:id="rId1"/>
-    <sheet name="9B" sheetId="2" r:id="rId2"/>
+    <sheet name="9A_tabulky" sheetId="1" r:id="rId1"/>
+    <sheet name="9A_graf1" sheetId="3" r:id="rId2"/>
+    <sheet name="9A_graf2" sheetId="4" r:id="rId3"/>
+    <sheet name="9B_tabulky" sheetId="2" r:id="rId4"/>
+    <sheet name="9B_graf1" sheetId="5" r:id="rId5"/>
+    <sheet name="9B_graf2" sheetId="6" r:id="rId6"/>
+    <sheet name="9B_graf3" sheetId="7" r:id="rId7"/>
+    <sheet name="9B_graf4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1386,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1570,15 +1576,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,24 +1626,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1728,12 +1707,29 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FF009900"/>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1760,6 +1756,61 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>f(I)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1800" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1773,12 +1824,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1806,15 +1854,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="15"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1824,9 +1870,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1836,8 +1882,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.4577646544181976E-2"/>
-                  <c:y val="-0.35185258092738408"/>
+                  <c:x val="4.1631477847603434E-3"/>
+                  <c:y val="4.5776465441819771E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1855,10 +1901,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1872,7 +1915,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'9A'!$I$14:$I$18</c:f>
+              <c:f>'9A_tabulky'!$I$14:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1896,7 +1939,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9A'!$L$14:$L$18</c:f>
+              <c:f>'9A_tabulky'!$L$14:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1921,7 +1964,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E12-48B0-A509-4D7AFB76FC35}"/>
+              <c16:uniqueId val="{00000001-61BF-4C39-BB19-46AC59DE3E6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1940,6 +1983,8 @@
         <c:axId val="37301648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1957,18 +2002,81 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1979,12 +2087,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2002,6 +2107,7 @@
         <c:axId val="32994928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2019,18 +2125,105 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2041,12 +2234,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2084,12 +2274,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2104,11 +2289,6 @@
       <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2127,6 +2307,75 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>L</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>f(I)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1800" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2139,13 +2388,24 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2173,15 +2433,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="15"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2191,9 +2449,9 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2203,8 +2461,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.7076771653543308E-2"/>
-                  <c:y val="-0.29843686205890929"/>
+                  <c:x val="8.4278215223098137E-3"/>
+                  <c:y val="6.6881014873140854E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2222,10 +2480,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -2239,7 +2494,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'9A'!$I$14:$I$18</c:f>
+              <c:f>'9A_tabulky'!$I$14:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2263,7 +2518,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9A'!$M$14:$M$18</c:f>
+              <c:f>'9A_tabulky'!$M$14:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2288,7 +2543,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33ED-4294-AA3D-EB7890ECC886}"/>
+              <c16:uniqueId val="{00000001-A875-4545-B5A4-1C5990B83559}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2307,6 +2562,8 @@
         <c:axId val="184294928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2324,18 +2581,115 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [A]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2346,12 +2700,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2369,6 +2720,7 @@
         <c:axId val="184296368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2386,18 +2738,123 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>P</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [H]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2408,12 +2865,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2451,12 +2905,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2471,11 +2920,6 @@
       <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2500,12 +2944,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2513,14 +2954,42 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Ls</a:t>
+              <a:rPr lang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>L</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> = f(f)</a:t>
+              <a:rPr lang="en-US" sz="1800" baseline="-25000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>S</a:t>
             </a:r>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>f(f)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1800" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2537,12 +3006,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -2563,27 +3029,26 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Ls 3V bez jádra</c:v>
+            <c:v>Metoda tří voltmetrů - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2591,7 +3056,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$5:$C$15</c:f>
+              <c:f>'9B_tabulky'!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2633,7 +3098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$J$5:$J$15</c:f>
+              <c:f>'9B_tabulky'!$J$5:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2676,7 +3141,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9353-418A-A982-E760927550D5}"/>
+              <c16:uniqueId val="{00000000-DDEC-472A-BC1A-09DD2C3FE8A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2684,27 +3149,26 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ls 3V s jádrem</c:v>
+            <c:v>Metoda tří voltmetrů - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="009900"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="009900"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2712,7 +3176,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$5:$P$15</c:f>
+              <c:f>'9B_tabulky'!$P$5:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2754,7 +3218,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$W$5:$W$15</c:f>
+              <c:f>'9B_tabulky'!$W$5:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2797,7 +3261,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9353-418A-A982-E760927550D5}"/>
+              <c16:uniqueId val="{00000001-DDEC-472A-BC1A-09DD2C3FE8A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2805,27 +3269,26 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Ls osc bez jádra</c:v>
+            <c:v>Měření osciloskopem - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2833,7 +3296,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$20:$C$30</c:f>
+              <c:f>'9B_tabulky'!$C$20:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2875,7 +3338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$I$20:$I$30</c:f>
+              <c:f>'9B_tabulky'!$I$20:$I$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2918,7 +3381,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9353-418A-A982-E760927550D5}"/>
+              <c16:uniqueId val="{00000002-DDEC-472A-BC1A-09DD2C3FE8A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2926,27 +3389,25 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Ls osc s jádrem,</c:v>
+            <c:v>Měření osciloskopem - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="CC00CC"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2954,7 +3415,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$20:$P$30</c:f>
+              <c:f>'9B_tabulky'!$P$20:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2996,7 +3457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$V$20:$V$30</c:f>
+              <c:f>'9B_tabulky'!$V$20:$V$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3039,7 +3500,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9353-418A-A982-E760927550D5}"/>
+              <c16:uniqueId val="{00000003-DDEC-472A-BC1A-09DD2C3FE8A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3068,9 +3529,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3078,18 +3538,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3100,12 +3637,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3130,9 +3664,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3140,18 +3673,89 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>L</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="-25000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>S</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [mH]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3162,12 +3766,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3190,7 +3791,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3206,10 +3807,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3236,12 +3834,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3256,11 +3849,6 @@
       <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3285,12 +3873,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3298,10 +3883,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Q = f(f)</a:t>
+              <a:rPr lang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Q</a:t>
             </a:r>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>f(f)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1800" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3318,12 +3927,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3344,27 +3950,26 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Q 3V bez jdára</c:v>
+            <c:v>Metoda tří voltmetrů - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3372,7 +3977,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$5:$C$15</c:f>
+              <c:f>'9B_tabulky'!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3414,7 +4019,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$M$5:$M$15</c:f>
+              <c:f>'9B_tabulky'!$M$5:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3457,7 +4062,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F461-4709-A6E3-BBE74CA104A3}"/>
+              <c16:uniqueId val="{00000000-8081-429E-ADA5-40EA9AE6493D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3465,27 +4070,26 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Q 3V s jádrem</c:v>
+            <c:v>Metoda tří voltmetrů - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="009900"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="009900"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3493,7 +4097,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$5:$P$15</c:f>
+              <c:f>'9B_tabulky'!$P$5:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3535,7 +4139,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$Z$5:$Z$15</c:f>
+              <c:f>'9B_tabulky'!$Z$5:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3578,7 +4182,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F461-4709-A6E3-BBE74CA104A3}"/>
+              <c16:uniqueId val="{00000001-8081-429E-ADA5-40EA9AE6493D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3586,27 +4190,25 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Q osc bez jádra</c:v>
+            <c:v>Měření osciloskopem - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3614,7 +4216,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$20:$C$30</c:f>
+              <c:f>'9B_tabulky'!$C$20:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3656,7 +4258,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$L$20:$L$30</c:f>
+              <c:f>'9B_tabulky'!$L$20:$L$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3699,7 +4301,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F461-4709-A6E3-BBE74CA104A3}"/>
+              <c16:uniqueId val="{00000002-8081-429E-ADA5-40EA9AE6493D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3707,27 +4309,25 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Q osc s jádrem</c:v>
+            <c:v>Měření osciloskopem - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="CC00CC"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3735,7 +4335,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$20:$P$30</c:f>
+              <c:f>'9B_tabulky'!$P$20:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3777,9 +4377,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$Y$20:$Y$30</c:f>
+              <c:f>'9B_tabulky'!$Y$20:$Y$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.3000143778165491</c:v>
@@ -3820,7 +4420,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F461-4709-A6E3-BBE74CA104A3}"/>
+              <c16:uniqueId val="{00000003-8081-429E-ADA5-40EA9AE6493D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3849,9 +4449,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3859,18 +4458,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3881,12 +4557,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3911,9 +4584,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3921,18 +4593,81 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Q</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3943,12 +4678,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3971,7 +4703,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3987,10 +4719,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4017,12 +4746,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4037,11 +4761,6 @@
       <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4066,12 +4785,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4079,10 +4795,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Z = f(f)</a:t>
+              <a:rPr lang="en-US" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Z</a:t>
             </a:r>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>f(f)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1800" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4099,12 +4839,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4125,27 +4862,26 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Z 3V bez jádra</c:v>
+            <c:v>Metoda tří voltmetrů - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4153,7 +4889,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$5:$C$15</c:f>
+              <c:f>'9B_tabulky'!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4195,7 +4931,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$G$5:$G$15</c:f>
+              <c:f>'9B_tabulky'!$G$5:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4238,7 +4974,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4CC-42C0-AC7E-F09E08D8C3BD}"/>
+              <c16:uniqueId val="{00000000-AB2F-4027-B8FD-E5EE4FF5C63B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4246,27 +4982,26 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Z 3V s jádrem</c:v>
+            <c:v>Metoda tří voltmetrů - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="009900"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="009900"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4274,7 +5009,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$5:$P$15</c:f>
+              <c:f>'9B_tabulky'!$P$5:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4316,7 +5051,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$T$5:$T$15</c:f>
+              <c:f>'9B_tabulky'!$T$5:$T$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4359,7 +5094,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B4CC-42C0-AC7E-F09E08D8C3BD}"/>
+              <c16:uniqueId val="{00000001-AB2F-4027-B8FD-E5EE4FF5C63B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4367,27 +5102,25 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Z osc bez jádra</c:v>
+            <c:v>Měření osciloskopem - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4395,7 +5128,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$20:$C$30</c:f>
+              <c:f>'9B_tabulky'!$C$20:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4437,7 +5170,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$F$20:$F$30</c:f>
+              <c:f>'9B_tabulky'!$F$20:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4480,7 +5213,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B4CC-42C0-AC7E-F09E08D8C3BD}"/>
+              <c16:uniqueId val="{00000002-AB2F-4027-B8FD-E5EE4FF5C63B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4488,27 +5221,25 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Z osc s jádrem</c:v>
+            <c:v>Měření osciloskopem - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="CC00CC"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4516,7 +5247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$20:$P$30</c:f>
+              <c:f>'9B_tabulky'!$P$20:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4558,9 +5289,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$S$20:$S$30</c:f>
+              <c:f>'9B_tabulky'!$S$20:$S$30</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.4285000000000001</c:v>
@@ -4592,7 +5323,7 @@
                 <c:pt idx="9" formatCode="0.00">
                   <c:v>321.28000000000003</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="General">
                   <c:v>428.43</c:v>
                 </c:pt>
               </c:numCache>
@@ -4601,7 +5332,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B4CC-42C0-AC7E-F09E08D8C3BD}"/>
+              <c16:uniqueId val="{00000003-AB2F-4027-B8FD-E5EE4FF5C63B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4630,9 +5361,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4640,18 +5370,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4662,12 +5469,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4692,9 +5496,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4702,18 +5505,97 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Z</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Ω</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -4724,12 +5606,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4752,7 +5631,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4768,10 +5647,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4798,12 +5674,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -4818,11 +5689,6 @@
       <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4847,12 +5713,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4860,10 +5723,34 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>fi = f(f)</a:t>
+              <a:rPr lang="el-GR" sz="1800" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>φ</a:t>
             </a:r>
-            <a:endParaRPr lang="cs-CZ"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> = </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>f(f)</a:t>
+            </a:r>
+            <a:endParaRPr lang="cs-CZ" sz="1800" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4880,12 +5767,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -4906,27 +5790,26 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>fi 3V bez jádra</c:v>
+            <c:v>Metoda tří voltmetrů - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -4934,7 +5817,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$5:$C$15</c:f>
+              <c:f>'9B_tabulky'!$C$5:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4976,7 +5859,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$H$5:$H$15</c:f>
+              <c:f>'9B_tabulky'!$H$5:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5019,7 +5902,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C003-4F32-AAF9-085CE5DCF0EE}"/>
+              <c16:uniqueId val="{00000000-A26E-4E02-B7ED-BB7320A25F65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5027,27 +5910,26 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>fi 3V s jádrem</c:v>
+            <c:v>Metoda tří voltmetrů - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="009900"/>
               </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="009900"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5055,7 +5937,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$5:$P$15</c:f>
+              <c:f>'9B_tabulky'!$P$5:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5097,7 +5979,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$U$5:$U$15</c:f>
+              <c:f>'9B_tabulky'!$U$5:$U$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5140,7 +6022,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C003-4F32-AAF9-085CE5DCF0EE}"/>
+              <c16:uniqueId val="{00000001-A26E-4E02-B7ED-BB7320A25F65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5148,27 +6030,25 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>fi osc bez jádra</c:v>
+            <c:v>Měření osciloskopem - bez jádra</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="0000FF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="0000FF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5176,7 +6056,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$C$20:$C$30</c:f>
+              <c:f>'9B_tabulky'!$C$20:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5218,7 +6098,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$G$20:$G$30</c:f>
+              <c:f>'9B_tabulky'!$G$20:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5261,7 +6141,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C003-4F32-AAF9-085CE5DCF0EE}"/>
+              <c16:uniqueId val="{00000002-A26E-4E02-B7ED-BB7320A25F65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5269,27 +6149,25 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>fi osc s jádrem</c:v>
+            <c:v>Měření osciloskopem - s jádrem</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="CC00CC"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="12"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="19050">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="CC00CC"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -5297,7 +6175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'9B'!$P$20:$P$30</c:f>
+              <c:f>'9B_tabulky'!$P$20:$P$30</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5339,7 +6217,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'9B'!$T$20:$T$30</c:f>
+              <c:f>'9B_tabulky'!$T$20:$T$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5382,7 +6260,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C003-4F32-AAF9-085CE5DCF0EE}"/>
+              <c16:uniqueId val="{00000003-A26E-4E02-B7ED-BB7320A25F65}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5411,9 +6289,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5421,18 +6298,95 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>f</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5443,12 +6397,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5473,9 +6424,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -5483,18 +6433,81 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400" i="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>φ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> [°]</a:t>
+                </a:r>
+                <a:endParaRPr lang="cs-CZ" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5505,12 +6518,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5533,7 +6543,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5549,10 +6559,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5579,12 +6586,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -5599,11 +6601,6 @@
       <a:endParaRPr lang="cs-CZ"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -8943,31 +9940,95 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{2F115CC8-F12E-4C12-A802-B89968691DD1}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F4E004F4-963F-433F-8998-4769740819AF}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{03F612C7-85AF-4789-84B7-DAA58FF81B56}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{97D07B75-FE0E-496A-87C7-59CB03697BE8}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E119B3F1-B256-4586-8F4D-9F34CEC21D21}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{503935DA-D350-49D6-81CE-F8824C73FE77}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652387" cy="6280355"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C032AC90-125F-C0CA-1BDB-D2B27010F6DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D61DAB6-A1D7-5D5E-A728-6045B88DB781}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8980,71 +10041,27 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC8F44A-61C6-837B-575E-79CAC8364E18}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652387" cy="6280355"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7609CE6-88B5-DB7E-BA69-167F5D401C0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3B31E4-2190-0F56-C846-B01015376A23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9057,31 +10074,26 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652387" cy="6280355"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BC724E-A073-4433-A880-E616AA1CD457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDFE335-5771-E6AD-0AE5-BD696965B187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9090,36 +10102,31 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652387" cy="6280355"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E8AE1D-FA91-436B-B658-BBA7FC76B5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E34C17-185B-1F42-5D1E-824C7C74D403}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9128,36 +10135,31 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652387" cy="6280355"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27EAB940-E837-4C9C-AEEB-93F0488D96B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C00424-3DAB-19F5-9DF2-9EFD73EA5557}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9166,13 +10168,50 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652387" cy="6280355"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BD8EF8-4A5A-A755-ECBE-6F7865DD192B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9440,8 +10479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9457,26 +10496,26 @@
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="63" t="s">
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="63" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="63" t="s">
+      <c r="K3" s="109"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="110"/>
     </row>
     <row r="4" spans="3:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
@@ -9529,7 +10568,7 @@
       <c r="E5" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="65">
         <v>0.9</v>
       </c>
       <c r="G5" s="57">
@@ -9538,7 +10577,7 @@
       <c r="H5" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="63">
         <v>5</v>
       </c>
       <c r="J5" s="7">
@@ -9547,7 +10586,7 @@
       <c r="K5" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="L5" s="66">
+      <c r="L5" s="63">
         <v>41</v>
       </c>
       <c r="M5" s="57">
@@ -9571,7 +10610,7 @@
       <c r="E6" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="65">
         <v>0.8</v>
       </c>
       <c r="G6" s="58">
@@ -9580,7 +10619,7 @@
       <c r="H6" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="63">
         <v>4</v>
       </c>
       <c r="J6" s="7">
@@ -9589,7 +10628,7 @@
       <c r="K6" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="66">
+      <c r="L6" s="63">
         <v>40</v>
       </c>
       <c r="M6" s="57">
@@ -9612,7 +10651,7 @@
       <c r="E7" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="65">
         <v>0.6</v>
       </c>
       <c r="G7" s="58">
@@ -9621,7 +10660,7 @@
       <c r="H7" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="66">
+      <c r="I7" s="63">
         <v>3</v>
       </c>
       <c r="J7" s="7">
@@ -9630,7 +10669,7 @@
       <c r="K7" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="67">
         <v>37</v>
       </c>
       <c r="M7" s="57">
@@ -9639,7 +10678,7 @@
       <c r="N7" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="72">
+      <c r="O7" s="69">
         <v>6.4</v>
       </c>
     </row>
@@ -9653,7 +10692,7 @@
       <c r="E8" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="65">
         <v>0.4</v>
       </c>
       <c r="G8" s="58">
@@ -9662,7 +10701,7 @@
       <c r="H8" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="63">
         <v>2</v>
       </c>
       <c r="J8" s="7">
@@ -9671,7 +10710,7 @@
       <c r="K8" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L8" s="70">
+      <c r="L8" s="67">
         <v>34</v>
       </c>
       <c r="M8" s="57">
@@ -9680,7 +10719,7 @@
       <c r="N8" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="O8" s="72">
+      <c r="O8" s="69">
         <f>(30*5/75)*0.2*(1/5)*M8</f>
         <v>3.0400000000000005</v>
       </c>
@@ -9695,7 +10734,7 @@
       <c r="E9" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="66">
         <v>0.2</v>
       </c>
       <c r="G9" s="59">
@@ -9704,7 +10743,7 @@
       <c r="H9" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="64">
         <v>1</v>
       </c>
       <c r="J9" s="8">
@@ -9713,7 +10752,7 @@
       <c r="K9" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="71">
+      <c r="L9" s="68">
         <v>30</v>
       </c>
       <c r="M9" s="60">
@@ -9722,7 +10761,7 @@
       <c r="N9" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="73">
+      <c r="O9" s="70">
         <f>(15*5/75)*0.2*(1/5)*M9</f>
         <v>1.1200000000000001</v>
       </c>
@@ -9811,35 +10850,35 @@
         <f>D25</f>
         <v>6000</v>
       </c>
-      <c r="F14" s="74" cm="1">
+      <c r="F14" s="71" cm="1">
         <f t="array" ref="F14:F18">POWER(L5:L9,2)*(E14:E18+D14:D18)/(E14:E18*D14:D18)</f>
         <v>0.39223333333333332</v>
       </c>
-      <c r="G14" s="75" cm="1">
+      <c r="G14" s="72" cm="1">
         <f t="array" ref="G14:G18">O5:O9-F14:F18</f>
         <v>14.007766666666667</v>
       </c>
-      <c r="H14" s="74" cm="1">
+      <c r="H14" s="71" cm="1">
         <f t="array" ref="H14:H18">L5:L9*(E14:E18+D14:D18)/(E14:E18*D14:D18)</f>
         <v>9.566666666666666E-3</v>
       </c>
-      <c r="I14" s="74" cm="1">
+      <c r="I14" s="71" cm="1">
         <f t="array" ref="I14:I18">D5:D9-H14:H18</f>
         <v>0.89043333333333341</v>
       </c>
-      <c r="J14" s="75" cm="1">
+      <c r="J14" s="72" cm="1">
         <f t="array" ref="J14:J18">G14:G18/POWER(I14:I18,2)</f>
         <v>17.667133064681799</v>
       </c>
-      <c r="K14" s="78" cm="1">
+      <c r="K14" s="75" cm="1">
         <f t="array" ref="K14:K18">(1/(2*PI()*50))*(SQRT(POWER(L5:L9,2)*POWER(I14:I18,2)-POWER(G14:G18,2))/POWER(I14:I18,2))</f>
         <v>0.13534774945792075</v>
       </c>
-      <c r="L14" s="76" cm="1">
+      <c r="L14" s="73" cm="1">
         <f t="array" ref="L14:L18">POWER(L5:L9,2)/G14:G18</f>
         <v>120.00485444979333</v>
       </c>
-      <c r="M14" s="78" cm="1">
+      <c r="M14" s="75" cm="1">
         <f t="array" ref="M14:M18">(1/(2*PI()*50))*(POWER(L5:L9,2)/SQRT(POWER(L5:L9,2)*POWER(I14:I18,2)-POWER(G14:G18,2)))</f>
         <v>0.15871358824457732</v>
       </c>
@@ -9856,28 +10895,28 @@
         <f>D25</f>
         <v>6000</v>
       </c>
-      <c r="F15" s="74">
+      <c r="F15" s="71">
         <v>0.37333333333333335</v>
       </c>
-      <c r="G15" s="75">
+      <c r="G15" s="72">
         <v>10.826666666666668</v>
       </c>
-      <c r="H15" s="74">
+      <c r="H15" s="71">
         <v>9.3333333333333341E-3</v>
       </c>
-      <c r="I15" s="74">
+      <c r="I15" s="71">
         <v>0.79066666666666674</v>
       </c>
-      <c r="J15" s="75">
+      <c r="J15" s="72">
         <v>17.318405569189729</v>
       </c>
-      <c r="K15" s="78">
+      <c r="K15" s="75">
         <v>0.15130414741425344</v>
       </c>
-      <c r="L15" s="76">
+      <c r="L15" s="73">
         <v>147.78325123152709</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M15" s="75">
         <v>0.17138884207600441</v>
       </c>
     </row>
@@ -9893,28 +10932,28 @@
         <f>D25</f>
         <v>6000</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="71">
         <v>0.31943333333333335</v>
       </c>
-      <c r="G16" s="74">
+      <c r="G16" s="71">
         <v>6.0805666666666669</v>
       </c>
-      <c r="H16" s="74">
+      <c r="H16" s="71">
         <v>8.6333333333333331E-3</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="71">
         <v>0.5913666666666666</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="72">
         <v>17.387228918941673</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="75">
         <v>0.19131207125826102</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="73">
         <v>225.14348991596177</v>
       </c>
-      <c r="M16" s="78">
+      <c r="M16" s="75">
         <v>0.20732307743425291</v>
       </c>
     </row>
@@ -9930,28 +10969,28 @@
         <f>D25</f>
         <v>6000</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="71">
         <v>0.38533333333333336</v>
       </c>
-      <c r="G17" s="74">
+      <c r="G17" s="71">
         <v>2.654666666666667</v>
       </c>
-      <c r="H17" s="74">
+      <c r="H17" s="71">
         <v>1.1333333333333334E-2</v>
       </c>
-      <c r="I17" s="74">
+      <c r="I17" s="71">
         <v>0.38866666666666672</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="72">
         <v>17.573384251917535</v>
       </c>
-      <c r="K17" s="78">
+      <c r="K17" s="75">
         <v>0.27277642690595433</v>
       </c>
-      <c r="L17" s="76">
+      <c r="L17" s="73">
         <v>435.45956805625309</v>
       </c>
-      <c r="M17" s="78">
+      <c r="M17" s="75">
         <v>0.28424750479908689</v>
       </c>
     </row>
@@ -9967,28 +11006,28 @@
         <f>D25</f>
         <v>6000</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="71">
         <v>0.45</v>
       </c>
-      <c r="G18" s="74">
+      <c r="G18" s="71">
         <v>0.67000000000000015</v>
       </c>
-      <c r="H18" s="74">
+      <c r="H18" s="71">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="I18" s="74">
+      <c r="I18" s="71">
         <v>0.185</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="72">
         <v>19.57633308984661</v>
       </c>
-      <c r="K18" s="78">
+      <c r="K18" s="75">
         <v>0.51240312987058867</v>
       </c>
-      <c r="L18" s="77">
+      <c r="L18" s="74">
         <v>1343.2835820895518</v>
       </c>
-      <c r="M18" s="78">
+      <c r="M18" s="75">
         <v>0.51998107004898286</v>
       </c>
     </row>
@@ -10067,7 +11106,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10076,7 +11114,7 @@
   <dimension ref="C1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T50" sqref="T50"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10244,40 +11282,40 @@
       <c r="C5" s="33">
         <v>20</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="76">
         <v>1000</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="21">
         <v>13.6</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="38">
         <v>1010</v>
       </c>
       <c r="G5" s="43" cm="1">
         <f t="array" ref="G5:G15">(D32*E5:E15*0.001)/(D5:D15*0.001)</f>
         <v>1.36</v>
       </c>
-      <c r="H5" s="90" cm="1">
+      <c r="H5" s="81" cm="1">
         <f t="array" ref="H5:H15">DEGREES(ASIN(SQRT(4*D5:D15^2*E5:E15^2-(F5:F15^2-D5:D15^2-E5:E15^2)^2)/(2*D5:D15*E5:E15)))</f>
         <v>42.93132789277157</v>
       </c>
-      <c r="I5" s="93" cm="1">
+      <c r="I5" s="84" cm="1">
         <f t="array" ref="I5:I15">G5:G15*COS(RADIANS(H5:H15))</f>
         <v>0.99575200000000019</v>
       </c>
-      <c r="J5" s="93" cm="1">
+      <c r="J5" s="84" cm="1">
         <f t="array" ref="J5:J15">(G5:G15*SIN(RADIANS(H5:H15)))/(2*PI()*C5:C15)*1000</f>
         <v>7.371459913363954</v>
       </c>
-      <c r="K5" s="93" cm="1">
+      <c r="K5" s="84" cm="1">
         <f t="array" ref="K5:K15">G5:G15/COS(RADIANS(H5:H15))</f>
         <v>1.8574906201544157</v>
       </c>
-      <c r="L5" s="90" cm="1">
+      <c r="L5" s="81" cm="1">
         <f t="array" ref="L5:L15">(G5:G15)/(SIN(RADIANS(H5:H15)))*1/(2*PI()*C5:C15)*1000</f>
         <v>15.889293256305809</v>
       </c>
-      <c r="M5" s="113" cm="1">
+      <c r="M5" s="104" cm="1">
         <f t="array" ref="M5:M15">SIN(RADIANS(H5:H15))/COS(RADIANS(H5:H15))</f>
         <v>0.93027678819850113</v>
       </c>
@@ -10297,27 +11335,27 @@
         <f t="array" ref="T5:T15">(D32*R5:R15)/(Q5:Q15)</f>
         <v>1.41</v>
       </c>
-      <c r="U5" s="90" cm="1">
+      <c r="U5" s="81" cm="1">
         <f t="array" ref="U5:U15">DEGREES(ASIN(SQRT(4*Q5:Q15^2*R5:R15^2-(S5:S15^2-Q5:Q15^2-R5:R15^2)^2)/(2*Q5:Q15*R5:R15)))</f>
         <v>31.883892565658631</v>
       </c>
-      <c r="V5" s="93" cm="1">
+      <c r="V5" s="84" cm="1">
         <f t="array" ref="V5:V15">T5:T15*COS(RADIANS(U5:U15))</f>
         <v>1.1972594999999999</v>
       </c>
-      <c r="W5" s="93" cm="1">
+      <c r="W5" s="84" cm="1">
         <f t="array" ref="W5:W15">(T5:T15*SIN(RADIANS(U5:U15)))/(2*PI()*P5:P15)*1000</f>
         <v>5.9266236956030696</v>
       </c>
-      <c r="X5" s="93" cm="1">
+      <c r="X5" s="84" cm="1">
         <f t="array" ref="X5:X15">_xlfn.ANCHORARRAY(T5)/COS(RADIANS(_xlfn.ANCHORARRAY(U5)))</f>
         <v>1.6605422633940261</v>
       </c>
-      <c r="Y5" s="90" cm="1">
+      <c r="Y5" s="81" cm="1">
         <f t="array" ref="Y5:Y15">(T5:T15)/(SIN(RADIANS(U5:U15)))*1/(2*PI()*P5:P15)*1000</f>
         <v>21.242769866253752</v>
       </c>
-      <c r="Z5" s="113" cm="1">
+      <c r="Z5" s="104" cm="1">
         <f t="array" ref="Z5:Z15">SIN(RADIANS(U5:U15))/COS(RADIANS(U5:U15))</f>
         <v>0.62205520065442099</v>
       </c>
@@ -10326,34 +11364,34 @@
       <c r="C6" s="34">
         <v>50</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="77">
         <v>1000</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="22">
         <v>13.7</v>
       </c>
-      <c r="F6" s="87">
+      <c r="F6" s="39">
         <v>1011</v>
       </c>
       <c r="G6" s="44">
         <v>1.37</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="81">
         <v>36.823485300130827</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="85">
         <v>1.0966655000000001</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="85">
         <v>2.6136804101312001</v>
       </c>
-      <c r="K6" s="94">
+      <c r="K6" s="85">
         <v>1.7114607872683147</v>
       </c>
-      <c r="L6" s="94">
+      <c r="L6" s="85">
         <v>7.2759366004031749</v>
       </c>
-      <c r="M6" s="114">
+      <c r="M6" s="105">
         <v>0.74873506783059507</v>
       </c>
       <c r="P6" s="34">
@@ -10371,22 +11409,22 @@
       <c r="T6" s="44">
         <v>1.6899999999999997</v>
       </c>
-      <c r="U6" s="91">
+      <c r="U6" s="82">
         <v>40.023497202258312</v>
       </c>
-      <c r="V6" s="94">
+      <c r="V6" s="85">
         <v>1.2941695</v>
       </c>
-      <c r="W6" s="94">
+      <c r="W6" s="85">
         <v>3.4595251997667651</v>
       </c>
-      <c r="X6" s="94">
+      <c r="X6" s="85">
         <v>2.2068979372485593</v>
       </c>
-      <c r="Y6" s="94">
+      <c r="Y6" s="85">
         <v>8.3648308912561333</v>
       </c>
-      <c r="Z6" s="114">
+      <c r="Z6" s="105">
         <v>0.8397987243939864</v>
       </c>
     </row>
@@ -10394,34 +11432,34 @@
       <c r="C7" s="34">
         <v>100</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="77">
         <v>1000</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="22">
         <v>14.6</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="39">
         <v>1012</v>
       </c>
       <c r="G7" s="44">
         <v>1.46</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="81">
         <v>34.960296120672147</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="85">
         <v>1.1965420000000002</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7" s="85">
         <v>1.3314785371864155</v>
       </c>
-      <c r="K7" s="94">
+      <c r="K7" s="85">
         <v>1.7814669271952006</v>
       </c>
-      <c r="L7" s="94">
+      <c r="L7" s="85">
         <v>4.0551955780750433</v>
       </c>
-      <c r="M7" s="114">
+      <c r="M7" s="105">
         <v>0.69917532202585897</v>
       </c>
       <c r="P7" s="34">
@@ -10439,22 +11477,22 @@
       <c r="T7" s="44">
         <v>2.5</v>
       </c>
-      <c r="U7" s="91">
+      <c r="U7" s="82">
         <v>56.535514458395106</v>
       </c>
-      <c r="V7" s="94">
+      <c r="V7" s="85">
         <v>1.3785500000000002</v>
       </c>
-      <c r="W7" s="94">
+      <c r="W7" s="85">
         <v>3.3192868585936157</v>
       </c>
-      <c r="X7" s="94">
+      <c r="X7" s="85">
         <v>4.5337492292626305</v>
       </c>
-      <c r="Y7" s="94">
+      <c r="Y7" s="85">
         <v>4.7695290038364044</v>
       </c>
-      <c r="Z7" s="114">
+      <c r="Z7" s="105">
         <v>1.5128718160552532</v>
       </c>
     </row>
@@ -10462,34 +11500,34 @@
       <c r="C8" s="34">
         <v>200</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="77">
         <v>1000</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="22">
         <v>17.7</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="39">
         <v>1014</v>
       </c>
       <c r="G8" s="44">
         <v>1.77</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H8" s="81">
         <v>38.033823207459029</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="85">
         <v>1.3941355000000002</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="85">
         <v>0.86782733826913439</v>
       </c>
-      <c r="K8" s="94">
+      <c r="K8" s="85">
         <v>2.2471990706785672</v>
       </c>
-      <c r="L8" s="94">
+      <c r="L8" s="85">
         <v>2.2860908085860325</v>
       </c>
-      <c r="M8" s="114">
+      <c r="M8" s="105">
         <v>0.7822367310754792</v>
       </c>
       <c r="P8" s="34">
@@ -10507,22 +11545,22 @@
       <c r="T8" s="44">
         <v>4.43</v>
       </c>
-      <c r="U8" s="91">
+      <c r="U8" s="82">
         <v>72.777133279924357</v>
       </c>
-      <c r="V8" s="94">
+      <c r="V8" s="85">
         <v>1.3116755000000004</v>
       </c>
-      <c r="W8" s="94">
+      <c r="W8" s="85">
         <v>3.3672092937157823</v>
       </c>
-      <c r="X8" s="91">
+      <c r="X8" s="82">
         <v>14.961703561589731</v>
       </c>
-      <c r="Y8" s="94">
+      <c r="Y8" s="85">
         <v>3.6907753636176852</v>
       </c>
-      <c r="Z8" s="114">
+      <c r="Z8" s="105">
         <v>3.2259198194177667</v>
       </c>
     </row>
@@ -10530,34 +11568,34 @@
       <c r="C9" s="34">
         <v>500</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="77">
         <v>1000</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="22">
         <v>31.7</v>
       </c>
-      <c r="F9" s="87">
+      <c r="F9" s="39">
         <v>1014</v>
       </c>
       <c r="G9" s="44">
         <v>3.17</v>
       </c>
-      <c r="H9" s="90">
+      <c r="H9" s="81">
         <v>64.603378844787329</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="85">
         <v>1.3595554999999997</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="85">
         <v>0.91152907928569493</v>
       </c>
-      <c r="K9" s="94">
+      <c r="K9" s="85">
         <v>7.3913128224629308</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="85">
         <v>1.1169873407674038</v>
       </c>
-      <c r="M9" s="114">
+      <c r="M9" s="105">
         <v>2.1063156737752942</v>
       </c>
       <c r="P9" s="34">
@@ -10575,22 +11613,22 @@
       <c r="T9" s="44">
         <v>10.66</v>
       </c>
-      <c r="U9" s="91">
+      <c r="U9" s="82">
         <v>82.725124612818433</v>
       </c>
-      <c r="V9" s="94">
+      <c r="V9" s="85">
         <v>1.3498720000000046</v>
       </c>
-      <c r="W9" s="94">
+      <c r="W9" s="85">
         <v>3.3658684843083368</v>
       </c>
-      <c r="X9" s="91">
+      <c r="X9" s="82">
         <v>84.182500266691662</v>
       </c>
-      <c r="Y9" s="94">
+      <c r="Y9" s="85">
         <v>3.4207199567018223</v>
       </c>
-      <c r="Z9" s="114">
+      <c r="Z9" s="105">
         <v>7.8334743614597873</v>
       </c>
     </row>
@@ -10598,34 +11636,34 @@
       <c r="C10" s="34">
         <v>1000</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="77">
         <v>1000</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="22">
         <v>59.3</v>
       </c>
-      <c r="F10" s="87">
+      <c r="F10" s="39">
         <v>1016</v>
       </c>
       <c r="G10" s="44">
         <v>5.93</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="81">
         <v>75.976312543996627</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="85">
         <v>1.4369754999999977</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="85">
         <v>0.91565977874800686</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="82">
         <v>24.471468024333088</v>
       </c>
-      <c r="L10" s="94">
+      <c r="L10" s="85">
         <v>0.97278196917639792</v>
       </c>
-      <c r="M10" s="114">
+      <c r="M10" s="105">
         <v>4.0037287122882717</v>
       </c>
       <c r="P10" s="34">
@@ -10643,22 +11681,22 @@
       <c r="T10" s="44">
         <v>21.17</v>
       </c>
-      <c r="U10" s="91">
+      <c r="U10" s="82">
         <v>85.861998929998535</v>
       </c>
-      <c r="V10" s="94">
+      <c r="V10" s="85">
         <v>1.5276054999999975</v>
       </c>
-      <c r="W10" s="94">
+      <c r="W10" s="85">
         <v>3.3605268365799104</v>
       </c>
-      <c r="X10" s="109">
+      <c r="X10" s="100">
         <v>293.3799989591559</v>
       </c>
-      <c r="Y10" s="94">
+      <c r="Y10" s="85">
         <v>3.3781164106026278</v>
       </c>
-      <c r="Z10" s="115">
+      <c r="Z10" s="106">
         <v>13.822163408014454</v>
       </c>
     </row>
@@ -10666,34 +11704,34 @@
       <c r="C11" s="34">
         <v>2000</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="77">
         <v>1000</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="22">
         <v>117.4</v>
       </c>
-      <c r="F11" s="87">
+      <c r="F11" s="39">
         <v>1024</v>
       </c>
       <c r="G11" s="44">
         <v>11.74</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="81">
         <v>81.478388277477919</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="85">
         <v>1.7396619999999992</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="85">
         <v>0.92392554899734902</v>
       </c>
-      <c r="K11" s="91">
+      <c r="K11" s="82">
         <v>79.226654373090909</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="85">
         <v>0.94466861979148664</v>
       </c>
-      <c r="M11" s="114">
+      <c r="M11" s="105">
         <v>6.6739348613558027</v>
       </c>
       <c r="P11" s="34">
@@ -10711,22 +11749,22 @@
       <c r="T11" s="44">
         <v>42.1</v>
       </c>
-      <c r="U11" s="91">
+      <c r="U11" s="82">
         <v>86.868608350816487</v>
       </c>
-      <c r="V11" s="94">
+      <c r="V11" s="85">
         <v>2.2997499999999236</v>
       </c>
-      <c r="W11" s="94">
+      <c r="W11" s="85">
         <v>3.3452093222162183</v>
       </c>
-      <c r="X11" s="109">
+      <c r="X11" s="100">
         <v>770.69681487120738</v>
       </c>
-      <c r="Y11" s="94">
+      <c r="Y11" s="85">
         <v>3.3552212619938069</v>
       </c>
-      <c r="Z11" s="115">
+      <c r="Z11" s="106">
         <v>18.279004294197041</v>
       </c>
     </row>
@@ -10734,34 +11772,34 @@
       <c r="C12" s="34">
         <v>5000</v>
       </c>
-      <c r="D12" s="80">
+      <c r="D12" s="77">
         <v>1000</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="22">
         <v>295.8</v>
       </c>
-      <c r="F12" s="87">
+      <c r="F12" s="39">
         <v>1067</v>
       </c>
       <c r="G12" s="44">
         <v>29.580000000000002</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="81">
         <v>85.055410182381536</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="85">
         <v>2.5495679999999643</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="85">
         <v>0.93805664393148547</v>
       </c>
-      <c r="K12" s="109">
+      <c r="K12" s="100">
         <v>343.18613976956584</v>
       </c>
-      <c r="L12" s="94">
+      <c r="L12" s="85">
         <v>0.94507773150623053</v>
       </c>
-      <c r="M12" s="115">
+      <c r="M12" s="106">
         <v>11.558789023184682</v>
       </c>
       <c r="P12" s="34">
@@ -10779,22 +11817,22 @@
       <c r="T12" s="44">
         <v>106.4</v>
       </c>
-      <c r="U12" s="91">
+      <c r="U12" s="82">
         <v>87.950592710439579</v>
       </c>
-      <c r="V12" s="94">
+      <c r="V12" s="85">
         <v>3.8049999999998327</v>
       </c>
-      <c r="W12" s="94">
+      <c r="W12" s="85">
         <v>3.3846508483708582</v>
       </c>
-      <c r="X12" s="110">
+      <c r="X12" s="101">
         <v>2975.2851511170825</v>
       </c>
-      <c r="Y12" s="94">
+      <c r="Y12" s="85">
         <v>3.3889849161832273</v>
       </c>
-      <c r="Z12" s="115">
+      <c r="Z12" s="106">
         <v>27.945319947986381</v>
       </c>
     </row>
@@ -10802,34 +11840,34 @@
       <c r="C13" s="34">
         <v>10000</v>
       </c>
-      <c r="D13" s="80">
+      <c r="D13" s="77">
         <v>1000</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="22">
         <v>592</v>
       </c>
-      <c r="F13" s="87">
+      <c r="F13" s="39">
         <v>1197</v>
       </c>
       <c r="G13" s="44">
         <v>59.2</v>
       </c>
-      <c r="H13" s="90">
+      <c r="H13" s="81">
         <v>86.011965596392656</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="85">
         <v>4.1172499999999923</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="85">
         <v>0.93991582324222533</v>
       </c>
-      <c r="K13" s="109">
+      <c r="K13" s="100">
         <v>851.20893800473777</v>
       </c>
-      <c r="L13" s="94">
+      <c r="L13" s="85">
         <v>0.94448424066154779</v>
       </c>
-      <c r="M13" s="115">
+      <c r="M13" s="106">
         <v>14.34371313517801</v>
       </c>
       <c r="P13" s="34">
@@ -10847,22 +11885,22 @@
       <c r="T13" s="44">
         <v>213.9</v>
       </c>
-      <c r="U13" s="91">
+      <c r="U13" s="82">
         <v>87.97550289300689</v>
       </c>
-      <c r="V13" s="94">
+      <c r="V13" s="85">
         <v>7.556399999999571</v>
       </c>
-      <c r="W13" s="94">
+      <c r="W13" s="85">
         <v>3.4021993019356502</v>
       </c>
-      <c r="X13" s="110">
+      <c r="X13" s="101">
         <v>6054.8951881851935</v>
       </c>
-      <c r="Y13" s="94">
+      <c r="Y13" s="85">
         <v>3.4064504907156428</v>
       </c>
-      <c r="Z13" s="115">
+      <c r="Z13" s="106">
         <v>28.289461471097265</v>
       </c>
     </row>
@@ -10870,34 +11908,34 @@
       <c r="C14" s="34">
         <v>15000</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="77">
         <v>1000</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="22">
         <v>893</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="39">
         <v>1382</v>
       </c>
       <c r="G14" s="44">
         <v>89.3</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H14" s="81">
         <v>86.38935604925021</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I14" s="85">
         <v>5.6237499999999532</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="85">
         <v>0.9456216796012108</v>
       </c>
-      <c r="K14" s="110">
+      <c r="K14" s="101">
         <v>1418.0022227161708</v>
       </c>
-      <c r="L14" s="94">
+      <c r="L14" s="85">
         <v>0.94938691676914233</v>
       </c>
-      <c r="M14" s="115">
+      <c r="M14" s="106">
         <v>15.847564996899379</v>
       </c>
       <c r="P14" s="34">
@@ -10915,22 +11953,22 @@
       <c r="T14" s="44">
         <v>322.2</v>
       </c>
-      <c r="U14" s="91">
+      <c r="U14" s="82">
         <v>88.108104174257491</v>
       </c>
-      <c r="V14" s="91">
+      <c r="V14" s="82">
         <v>10.637050000000736</v>
       </c>
-      <c r="W14" s="94">
+      <c r="W14" s="85">
         <v>3.4167846573216605</v>
       </c>
-      <c r="X14" s="110">
+      <c r="X14" s="101">
         <v>9759.5517554202361</v>
       </c>
-      <c r="Y14" s="94">
+      <c r="Y14" s="85">
         <v>3.4205127142733702</v>
       </c>
-      <c r="Z14" s="115">
+      <c r="Z14" s="106">
         <v>30.273841652542686</v>
       </c>
     </row>
@@ -10938,34 +11976,34 @@
       <c r="C15" s="35">
         <v>20000</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="78">
         <v>1000</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="23">
         <v>1193</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="40">
         <v>1606</v>
       </c>
       <c r="G15" s="45">
         <v>119.3</v>
       </c>
-      <c r="H15" s="90">
+      <c r="H15" s="81">
         <v>86.251560997023944</v>
       </c>
-      <c r="I15" s="95">
+      <c r="I15" s="86">
         <v>7.7993499999999782</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="86">
         <v>0.94732827583648704</v>
       </c>
-      <c r="K15" s="111">
+      <c r="K15" s="102">
         <v>1824.8302743177367</v>
       </c>
-      <c r="L15" s="95">
+      <c r="L15" s="86">
         <v>0.95139454938707035</v>
       </c>
-      <c r="M15" s="116">
+      <c r="M15" s="107">
         <v>15.263423500193227</v>
       </c>
       <c r="P15" s="35">
@@ -10983,22 +12021,22 @@
       <c r="T15" s="45">
         <v>424</v>
       </c>
-      <c r="U15" s="92">
+      <c r="U15" s="83">
         <v>88.009787647345618</v>
       </c>
-      <c r="V15" s="92">
+      <c r="V15" s="83">
         <v>14.724999999999792</v>
       </c>
-      <c r="W15" s="95">
+      <c r="W15" s="86">
         <v>3.3720494585559471</v>
       </c>
-      <c r="X15" s="111">
+      <c r="X15" s="102">
         <v>12208.896434635148</v>
       </c>
-      <c r="Y15" s="95">
+      <c r="Y15" s="86">
         <v>3.3761213570480582</v>
       </c>
-      <c r="Z15" s="116">
+      <c r="Z15" s="107">
         <v>28.777197437123128</v>
       </c>
     </row>
@@ -11138,72 +12176,72 @@
       <c r="C20" s="33">
         <v>20</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D20" s="88">
         <v>9.9321000000000002</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E20" s="92">
         <v>13.738</v>
       </c>
-      <c r="F20" s="93" cm="1">
+      <c r="F20" s="84" cm="1">
         <f t="array" ref="F20:F30">(D32*E20:E30*0.001)/(1000*0.001)</f>
         <v>1.3737999999999999</v>
       </c>
       <c r="G20" s="21">
         <v>5</v>
       </c>
-      <c r="H20" s="93" cm="1">
+      <c r="H20" s="84" cm="1">
         <f t="array" ref="H20:H30">F20:F30*COS(RADIANS(G20:G30))</f>
         <v>1.36857227623844</v>
       </c>
-      <c r="I20" s="93" cm="1">
+      <c r="I20" s="84" cm="1">
         <f t="array" ref="I20:I30">((F20:F30*SIN(RADIANS(G20:G30)))/(2*PI()*C20:C30))*1000</f>
         <v>0.95281734926643091</v>
       </c>
-      <c r="J20" s="93" cm="1">
+      <c r="J20" s="84" cm="1">
         <f t="array" ref="J20:J30">_xlfn.ANCHORARRAY(F20)/COS(RADIANS(G20:G30))</f>
         <v>1.3790476928170505</v>
       </c>
-      <c r="K20" s="112" cm="1">
+      <c r="K20" s="103" cm="1">
         <f t="array" ref="K20:K30">(_xlfn.ANCHORARRAY(F20))/(SIN(RADIANS(G20:G30)))*1/(2*PI()*C20:C30)*1000</f>
         <v>125.43468389265763</v>
       </c>
-      <c r="L20" s="113" cm="1">
+      <c r="L20" s="104" cm="1">
         <f t="array" ref="L20:L30">SIN(RADIANS(G20:G30))/COS(RADIANS(G20:G30))</f>
         <v>8.7488663525923993E-2</v>
       </c>
       <c r="P20" s="33">
         <v>20</v>
       </c>
-      <c r="Q20" s="97">
+      <c r="Q20" s="88">
         <v>9.9380000000000006</v>
       </c>
-      <c r="R20" s="101">
+      <c r="R20" s="92">
         <v>14.285</v>
       </c>
-      <c r="S20" s="93" cm="1">
+      <c r="S20" s="84" cm="1">
         <f t="array" ref="S20:S30">(D32*R20:R30*0.001)/(1000*0.001)</f>
         <v>1.4285000000000001</v>
       </c>
       <c r="T20" s="21">
         <v>16.7</v>
       </c>
-      <c r="U20" s="93" cm="1">
+      <c r="U20" s="84" cm="1">
         <f t="array" ref="U20:U30">S20:S30*COS(RADIANS(T20:T30))</f>
         <v>1.3682494338865325</v>
       </c>
-      <c r="V20" s="93" cm="1">
+      <c r="V20" s="84" cm="1">
         <f t="array" ref="V20:V30">(S20:S30*SIN(RADIANS(T20:T30)))/(2*PI()*P20:P30)*1000</f>
         <v>3.2666114600842282</v>
       </c>
-      <c r="W20" s="93" cm="1">
+      <c r="W20" s="84" cm="1">
         <f t="array" ref="W20:W30">_xlfn.ANCHORARRAY(S20)/COS(RADIANS(T20:T30))</f>
         <v>1.4914036866827793</v>
       </c>
-      <c r="X20" s="90" cm="1">
+      <c r="X20" s="81" cm="1">
         <f t="array" ref="X20:X30">(S20:S30)/(SIN(RADIANS(T20:T30)))*1/(2*PI()*P20:P30)*1000</f>
         <v>39.558815582195642</v>
       </c>
-      <c r="Y20" s="113" cm="1">
+      <c r="Y20" s="104" cm="1">
         <f t="array" ref="Y20:Y30">SIN(RADIANS(T20:T30))/COS(RADIANS(T20:T30))</f>
         <v>0.3000143778165491</v>
       </c>
@@ -11212,61 +12250,61 @@
       <c r="C21" s="34">
         <v>50</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="89">
         <v>9.8890999999999991</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="93">
         <v>13.942</v>
       </c>
-      <c r="F21" s="105">
+      <c r="F21" s="96">
         <v>1.3942000000000001</v>
       </c>
       <c r="G21" s="22">
         <v>12</v>
       </c>
-      <c r="H21" s="94">
+      <c r="H21" s="85">
         <v>1.3637333849430719</v>
       </c>
-      <c r="I21" s="94">
+      <c r="I21" s="85">
         <v>0.92268639286157861</v>
       </c>
-      <c r="J21" s="94">
+      <c r="J21" s="85">
         <v>1.4253472573608239</v>
       </c>
-      <c r="K21" s="91">
+      <c r="K21" s="82">
         <v>21.345006698369538</v>
       </c>
-      <c r="L21" s="114">
+      <c r="L21" s="105">
         <v>0.21255656167002213</v>
       </c>
       <c r="P21" s="34">
         <v>50</v>
       </c>
-      <c r="Q21" s="98">
+      <c r="Q21" s="89">
         <v>9.8789999999999996</v>
       </c>
-      <c r="R21" s="102">
+      <c r="R21" s="93">
         <v>17.181999999999999</v>
       </c>
-      <c r="S21" s="105">
+      <c r="S21" s="96">
         <v>1.7181999999999999</v>
       </c>
       <c r="T21" s="22">
         <v>38</v>
       </c>
-      <c r="U21" s="94">
+      <c r="U21" s="85">
         <v>1.3539600768470694</v>
       </c>
-      <c r="V21" s="94">
+      <c r="V21" s="85">
         <v>3.3671760267703688</v>
       </c>
-      <c r="W21" s="94">
+      <c r="W21" s="85">
         <v>2.1804270971377049</v>
       </c>
-      <c r="X21" s="94">
+      <c r="X21" s="85">
         <v>8.8834541117209262</v>
       </c>
-      <c r="Y21" s="114">
+      <c r="Y21" s="105">
         <v>0.78128562650671751</v>
       </c>
     </row>
@@ -11274,61 +12312,61 @@
       <c r="C22" s="34">
         <v>100</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D22" s="89">
         <v>9.8810000000000002</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="93">
         <v>14.788</v>
       </c>
-      <c r="F22" s="105">
+      <c r="F22" s="96">
         <v>1.4787999999999999</v>
       </c>
       <c r="G22" s="22">
         <v>24</v>
       </c>
-      <c r="H22" s="94">
+      <c r="H22" s="85">
         <v>1.3509510227618782</v>
       </c>
-      <c r="I22" s="94">
+      <c r="I22" s="85">
         <v>0.95728857000795398</v>
       </c>
-      <c r="J22" s="94">
+      <c r="J22" s="85">
         <v>1.6187481286547418</v>
       </c>
-      <c r="K22" s="94">
+      <c r="K22" s="85">
         <v>5.7865042122706649</v>
       </c>
-      <c r="L22" s="114">
+      <c r="L22" s="105">
         <v>0.44522868530853615</v>
       </c>
       <c r="P22" s="34">
         <v>100</v>
       </c>
-      <c r="Q22" s="98">
+      <c r="Q22" s="89">
         <v>9.8815000000000008</v>
       </c>
-      <c r="R22" s="102">
+      <c r="R22" s="93">
         <v>25.068000000000001</v>
       </c>
-      <c r="S22" s="105">
+      <c r="S22" s="96">
         <v>2.5068000000000001</v>
       </c>
       <c r="T22" s="22">
         <v>58</v>
       </c>
-      <c r="U22" s="94">
+      <c r="U22" s="85">
         <v>1.3284016115797981</v>
       </c>
-      <c r="V22" s="94">
+      <c r="V22" s="85">
         <v>3.3834541932349955</v>
       </c>
-      <c r="W22" s="94">
+      <c r="W22" s="85">
         <v>4.7305319304202857</v>
       </c>
-      <c r="X22" s="94">
+      <c r="X22" s="85">
         <v>4.7045634929315572</v>
       </c>
-      <c r="Y22" s="114">
+      <c r="Y22" s="105">
         <v>1.6003345290410504</v>
       </c>
     </row>
@@ -11336,61 +12374,61 @@
       <c r="C23" s="34">
         <v>200</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="89">
         <v>9.8849999999999998</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="93">
         <v>18.016999999999999</v>
       </c>
-      <c r="F23" s="105">
+      <c r="F23" s="96">
         <v>1.8017000000000001</v>
       </c>
       <c r="G23" s="22">
         <v>40</v>
       </c>
-      <c r="H23" s="94">
+      <c r="H23" s="85">
         <v>1.3801822731674627</v>
       </c>
-      <c r="I23" s="94">
+      <c r="I23" s="85">
         <v>0.92159500297476804</v>
       </c>
-      <c r="J23" s="94">
+      <c r="J23" s="85">
         <v>2.3519523131899667</v>
       </c>
-      <c r="K23" s="94">
+      <c r="K23" s="85">
         <v>2.2305148438416817</v>
       </c>
-      <c r="L23" s="114">
+      <c r="L23" s="105">
         <v>0.83909963117727993</v>
       </c>
       <c r="P23" s="34">
         <v>200</v>
       </c>
-      <c r="Q23" s="98">
+      <c r="Q23" s="89">
         <v>9.8850999999999996</v>
       </c>
-      <c r="R23" s="102">
+      <c r="R23" s="93">
         <v>44.527000000000001</v>
       </c>
-      <c r="S23" s="105">
+      <c r="S23" s="96">
         <v>4.4527000000000001</v>
       </c>
       <c r="T23" s="22">
         <v>73</v>
       </c>
-      <c r="U23" s="94">
+      <c r="U23" s="85">
         <v>1.3018434896189301</v>
       </c>
-      <c r="V23" s="94">
+      <c r="V23" s="85">
         <v>3.3885187040488649</v>
       </c>
-      <c r="W23" s="94">
+      <c r="W23" s="85">
         <v>15.229585928031593</v>
       </c>
-      <c r="X23" s="94">
+      <c r="X23" s="85">
         <v>3.7052477815590561</v>
       </c>
-      <c r="Y23" s="114">
+      <c r="Y23" s="105">
         <v>3.2708526184841404</v>
       </c>
     </row>
@@ -11398,61 +12436,61 @@
       <c r="C24" s="34">
         <v>500</v>
       </c>
-      <c r="D24" s="98">
+      <c r="D24" s="89">
         <v>9.9</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="93">
         <v>32.76</v>
       </c>
-      <c r="F24" s="105">
+      <c r="F24" s="96">
         <v>3.2760000000000002</v>
       </c>
       <c r="G24" s="22">
         <v>66</v>
       </c>
-      <c r="H24" s="94">
+      <c r="H24" s="85">
         <v>1.3324692427163216</v>
       </c>
-      <c r="I24" s="94">
+      <c r="I24" s="85">
         <v>0.95262984391608407</v>
       </c>
-      <c r="J24" s="94">
+      <c r="J24" s="85">
         <v>8.0543517673412044</v>
       </c>
-      <c r="K24" s="94">
+      <c r="K24" s="85">
         <v>1.1414683072575227</v>
       </c>
-      <c r="L24" s="114">
+      <c r="L24" s="105">
         <v>2.246036773904216</v>
       </c>
       <c r="P24" s="34">
         <v>500</v>
       </c>
-      <c r="Q24" s="98">
+      <c r="Q24" s="89">
         <v>9.8930000000000007</v>
       </c>
-      <c r="R24" s="103">
+      <c r="R24" s="94">
         <v>105.95</v>
       </c>
-      <c r="S24" s="105">
+      <c r="S24" s="96">
         <v>10.595000000000001</v>
       </c>
       <c r="T24" s="22">
         <v>83</v>
       </c>
-      <c r="U24" s="94">
+      <c r="U24" s="85">
         <v>1.2912056933775378</v>
       </c>
-      <c r="V24" s="94">
+      <c r="V24" s="85">
         <v>3.3473551908849464</v>
       </c>
-      <c r="W24" s="91">
+      <c r="W24" s="82">
         <v>86.937368364885202</v>
       </c>
-      <c r="X24" s="94">
+      <c r="X24" s="85">
         <v>3.3978200797417286</v>
       </c>
-      <c r="Y24" s="114">
+      <c r="Y24" s="105">
         <v>8.1443464279745932</v>
       </c>
     </row>
@@ -11460,61 +12498,61 @@
       <c r="C25" s="34">
         <v>1000</v>
       </c>
-      <c r="D25" s="98">
+      <c r="D25" s="89">
         <v>9.9169999999999998</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="93">
         <v>61.165999999999997</v>
       </c>
-      <c r="F25" s="105">
+      <c r="F25" s="96">
         <v>6.1165999999999991</v>
       </c>
       <c r="G25" s="22">
         <v>78</v>
       </c>
-      <c r="H25" s="94">
+      <c r="H25" s="85">
         <v>1.2717126480559073</v>
       </c>
-      <c r="I25" s="94">
+      <c r="I25" s="85">
         <v>0.95221409558172532</v>
       </c>
-      <c r="J25" s="91">
+      <c r="J25" s="82">
         <v>29.419221093061928</v>
       </c>
-      <c r="K25" s="94">
+      <c r="K25" s="85">
         <v>0.995235406379955</v>
       </c>
-      <c r="L25" s="114">
+      <c r="L25" s="105">
         <v>4.7046301094784511</v>
       </c>
       <c r="P25" s="34">
         <v>1000</v>
       </c>
-      <c r="Q25" s="98">
+      <c r="Q25" s="89">
         <v>9.9111999999999991</v>
       </c>
-      <c r="R25" s="103">
+      <c r="R25" s="94">
         <v>210.67</v>
       </c>
-      <c r="S25" s="105">
+      <c r="S25" s="96">
         <v>21.067</v>
       </c>
       <c r="T25" s="22">
         <v>86</v>
       </c>
-      <c r="U25" s="94">
+      <c r="U25" s="85">
         <v>1.4695596323674862</v>
       </c>
-      <c r="V25" s="94">
+      <c r="V25" s="85">
         <v>3.344749648368607</v>
       </c>
-      <c r="W25" s="91">
+      <c r="W25" s="82">
         <v>302.00781188103315</v>
       </c>
-      <c r="X25" s="94">
+      <c r="X25" s="85">
         <v>3.3611046681600678</v>
       </c>
-      <c r="Y25" s="115">
+      <c r="Y25" s="106">
         <v>14.30066625671194</v>
       </c>
     </row>
@@ -11522,61 +12560,61 @@
       <c r="C26" s="34">
         <v>2000</v>
       </c>
-      <c r="D26" s="98">
+      <c r="D26" s="89">
         <v>9.9666999999999994</v>
       </c>
-      <c r="E26" s="103">
+      <c r="E26" s="94">
         <v>119.52</v>
       </c>
-      <c r="F26" s="106">
+      <c r="F26" s="97">
         <v>11.952</v>
       </c>
       <c r="G26" s="22">
         <v>83</v>
       </c>
-      <c r="H26" s="94">
+      <c r="H26" s="85">
         <v>1.4565823923783228</v>
       </c>
-      <c r="I26" s="94">
+      <c r="I26" s="85">
         <v>0.94402051065259274</v>
       </c>
-      <c r="J26" s="91">
+      <c r="J26" s="82">
         <v>98.072244143190929</v>
       </c>
-      <c r="K26" s="94">
+      <c r="K26" s="85">
         <v>0.95825260955812031</v>
       </c>
-      <c r="L26" s="114">
+      <c r="L26" s="105">
         <v>8.1443464279745932</v>
       </c>
       <c r="P26" s="34">
         <v>2000</v>
       </c>
-      <c r="Q26" s="98">
+      <c r="Q26" s="89">
         <v>9.9582999999999995</v>
       </c>
-      <c r="R26" s="103">
+      <c r="R26" s="94">
         <v>424.81</v>
       </c>
-      <c r="S26" s="106">
+      <c r="S26" s="97">
         <v>42.481000000000002</v>
       </c>
       <c r="T26" s="22">
         <v>89</v>
       </c>
-      <c r="U26" s="94">
+      <c r="U26" s="85">
         <v>0.74139567786224458</v>
       </c>
-      <c r="V26" s="94">
+      <c r="V26" s="85">
         <v>3.3800156975638167</v>
       </c>
-      <c r="W26" s="109">
+      <c r="W26" s="100">
         <v>2434.1055861068985</v>
       </c>
-      <c r="X26" s="94">
+      <c r="X26" s="85">
         <v>3.3810455183523098</v>
       </c>
-      <c r="Y26" s="115">
+      <c r="Y26" s="106">
         <v>57.289961630759144</v>
       </c>
     </row>
@@ -11584,61 +12622,61 @@
       <c r="C27" s="34">
         <v>5000</v>
       </c>
-      <c r="D27" s="100">
+      <c r="D27" s="91">
         <v>10.061999999999999</v>
       </c>
-      <c r="E27" s="103">
+      <c r="E27" s="94">
         <v>301.19</v>
       </c>
-      <c r="F27" s="106">
+      <c r="F27" s="97">
         <v>30.119</v>
       </c>
       <c r="G27" s="22">
         <v>88</v>
       </c>
-      <c r="H27" s="94">
+      <c r="H27" s="85">
         <v>1.05113794118263</v>
       </c>
-      <c r="I27" s="94">
+      <c r="I27" s="85">
         <v>0.95813352137149721</v>
       </c>
-      <c r="J27" s="109">
+      <c r="J27" s="100">
         <v>863.02104172870531</v>
       </c>
-      <c r="K27" s="94">
+      <c r="K27" s="85">
         <v>0.95930192701142392</v>
       </c>
-      <c r="L27" s="115">
+      <c r="L27" s="106">
         <v>28.636253282915515</v>
       </c>
       <c r="P27" s="34">
         <v>5000</v>
       </c>
-      <c r="Q27" s="100">
+      <c r="Q27" s="91">
         <v>10.058</v>
       </c>
-      <c r="R27" s="108">
+      <c r="R27" s="99">
         <v>1072.0999999999999</v>
       </c>
-      <c r="S27" s="106">
+      <c r="S27" s="97">
         <v>107.21</v>
       </c>
       <c r="T27" s="22">
         <v>89</v>
       </c>
-      <c r="U27" s="94">
+      <c r="U27" s="85">
         <v>1.8710724941411745</v>
       </c>
-      <c r="V27" s="94">
+      <c r="V27" s="85">
         <v>3.4120805342229863</v>
       </c>
-      <c r="W27" s="110">
+      <c r="W27" s="101">
         <v>6142.992393929535</v>
       </c>
-      <c r="X27" s="94">
+      <c r="X27" s="85">
         <v>3.4131201245031999</v>
       </c>
-      <c r="Y27" s="115">
+      <c r="Y27" s="106">
         <v>57.289961630759144</v>
       </c>
     </row>
@@ -11646,61 +12684,61 @@
       <c r="C28" s="34">
         <v>10000</v>
       </c>
-      <c r="D28" s="100">
+      <c r="D28" s="91">
         <v>10.071999999999999</v>
       </c>
-      <c r="E28" s="103">
+      <c r="E28" s="94">
         <v>603.48</v>
       </c>
-      <c r="F28" s="106">
+      <c r="F28" s="97">
         <v>60.347999999999999</v>
       </c>
       <c r="G28" s="22">
         <v>88</v>
       </c>
-      <c r="H28" s="94">
+      <c r="H28" s="85">
         <v>2.1061148270025352</v>
       </c>
-      <c r="I28" s="94">
+      <c r="I28" s="85">
         <v>0.95988315926370571</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="101">
         <v>1729.1939913756735</v>
       </c>
-      <c r="K28" s="94">
+      <c r="K28" s="85">
         <v>0.96105369851730493</v>
       </c>
-      <c r="L28" s="115">
+      <c r="L28" s="106">
         <v>28.636253282915515</v>
       </c>
       <c r="P28" s="34">
         <v>10000</v>
       </c>
-      <c r="Q28" s="100">
+      <c r="Q28" s="91">
         <v>10.07</v>
       </c>
-      <c r="R28" s="108">
+      <c r="R28" s="99">
         <v>2162.8000000000002</v>
       </c>
-      <c r="S28" s="106">
+      <c r="S28" s="97">
         <v>216.28000000000003</v>
       </c>
       <c r="T28" s="22">
         <v>89</v>
       </c>
-      <c r="U28" s="94">
+      <c r="U28" s="85">
         <v>3.7746064642556973</v>
       </c>
-      <c r="V28" s="94">
+      <c r="V28" s="85">
         <v>3.4416788449852982</v>
       </c>
-      <c r="W28" s="110">
+      <c r="W28" s="101">
         <v>12392.560348466375</v>
       </c>
-      <c r="X28" s="94">
+      <c r="X28" s="85">
         <v>3.4427274532578687</v>
       </c>
-      <c r="Y28" s="115">
+      <c r="Y28" s="106">
         <v>57.289961630759144</v>
       </c>
     </row>
@@ -11708,61 +12746,61 @@
       <c r="C29" s="34">
         <v>15000</v>
       </c>
-      <c r="D29" s="100">
+      <c r="D29" s="91">
         <v>10.025</v>
       </c>
-      <c r="E29" s="103">
+      <c r="E29" s="94">
         <v>898.56</v>
       </c>
-      <c r="F29" s="106">
+      <c r="F29" s="97">
         <v>89.856000000000009</v>
       </c>
       <c r="G29" s="22">
         <v>88</v>
       </c>
-      <c r="H29" s="94">
+      <c r="H29" s="85">
         <v>3.1359291756999372</v>
       </c>
-      <c r="I29" s="94">
+      <c r="I29" s="85">
         <v>0.95282098449879093</v>
       </c>
-      <c r="J29" s="110">
+      <c r="J29" s="101">
         <v>2574.7076173038467</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="85">
         <v>0.95398291171174898</v>
       </c>
-      <c r="L29" s="115">
+      <c r="L29" s="106">
         <v>28.636253282915515</v>
       </c>
       <c r="P29" s="34">
         <v>15000</v>
       </c>
-      <c r="Q29" s="100">
+      <c r="Q29" s="91">
         <v>10.022</v>
       </c>
-      <c r="R29" s="108">
+      <c r="R29" s="99">
         <v>3212.8</v>
       </c>
-      <c r="S29" s="106">
+      <c r="S29" s="97">
         <v>321.28000000000003</v>
       </c>
       <c r="T29" s="22">
         <v>89</v>
       </c>
-      <c r="U29" s="94">
+      <c r="U29" s="85">
         <v>5.6071091401704747</v>
       </c>
-      <c r="V29" s="94">
+      <c r="V29" s="85">
         <v>3.4083674844857796</v>
       </c>
-      <c r="W29" s="110">
+      <c r="W29" s="101">
         <v>18408.922640814115</v>
       </c>
-      <c r="X29" s="94">
+      <c r="X29" s="85">
         <v>3.4094059434766297</v>
       </c>
-      <c r="Y29" s="115">
+      <c r="Y29" s="106">
         <v>57.289961630759144</v>
       </c>
     </row>
@@ -11770,61 +12808,61 @@
       <c r="C30" s="35">
         <v>20000</v>
       </c>
-      <c r="D30" s="99">
+      <c r="D30" s="90">
         <v>9.9690999999999992</v>
       </c>
-      <c r="E30" s="104">
+      <c r="E30" s="95">
         <v>1190.7</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="98">
         <v>119.07000000000001</v>
       </c>
       <c r="G30" s="23">
         <v>87</v>
       </c>
-      <c r="H30" s="95">
+      <c r="H30" s="86">
         <v>6.2316423098473388</v>
       </c>
-      <c r="I30" s="95">
+      <c r="I30" s="86">
         <v>0.94623039819752142</v>
       </c>
-      <c r="J30" s="111">
+      <c r="J30" s="102">
         <v>2275.1089030890357</v>
       </c>
-      <c r="K30" s="95">
+      <c r="K30" s="86">
         <v>0.94882929126512006</v>
       </c>
-      <c r="L30" s="116">
+      <c r="L30" s="107">
         <v>19.081136687728161</v>
       </c>
       <c r="P30" s="35">
         <v>20000</v>
       </c>
-      <c r="Q30" s="99">
+      <c r="Q30" s="90">
         <v>9.9724000000000004</v>
       </c>
-      <c r="R30" s="104">
+      <c r="R30" s="95">
         <v>4284.3</v>
       </c>
-      <c r="S30" s="96">
+      <c r="S30" s="87">
         <v>428.43</v>
       </c>
       <c r="T30" s="23">
         <v>89</v>
       </c>
-      <c r="U30" s="95">
+      <c r="U30" s="86">
         <v>7.4771344899254117</v>
       </c>
-      <c r="V30" s="95">
+      <c r="V30" s="86">
         <v>3.4088183548110109</v>
       </c>
-      <c r="W30" s="111">
+      <c r="W30" s="102">
         <v>24548.477113433735</v>
       </c>
-      <c r="X30" s="95">
+      <c r="X30" s="86">
         <v>3.4098569511727126</v>
       </c>
-      <c r="Y30" s="116">
+      <c r="Y30" s="107">
         <v>57.289961630759144</v>
       </c>
     </row>
@@ -11840,13 +12878,12 @@
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>